--- a/public/templates/device_installationtest.xlsx
+++ b/public/templates/device_installationtest.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28803"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Documents\Code\New folder\hino\public\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354E0953-32E5-437B-BA52-CA61BD948618}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8904809-BA94-4FAC-BCA2-19E1FCC670AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>sim_no</t>
   </si>
@@ -28,13 +39,25 @@
     <t>active_date</t>
   </si>
   <si>
-    <t>expire_date</t>
-  </si>
-  <si>
     <t>network_carrier</t>
   </si>
   <si>
+    <t>01234569123</t>
+  </si>
+  <si>
     <t>Viettel</t>
+  </si>
+  <si>
+    <t>012345633234</t>
+  </si>
+  <si>
+    <t>012345660345</t>
+  </si>
+  <si>
+    <t>012345635456</t>
+  </si>
+  <si>
+    <t>Vinaphone</t>
   </si>
 </sst>
 </file>
@@ -42,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -75,22 +98,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -576,21 +596,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,36 +619,52 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="1">
+        <v>45383</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>3299994252</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
         <v>45383</v>
       </c>
-      <c r="C2" s="3">
-        <v>46003</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45383</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45383</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>